--- a/DynamicChartsWorkbook.xlsx
+++ b/DynamicChartsWorkbook.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D731422E-6560-4D69-B5D9-ADC9A15665F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{D731422E-6560-4D69-B5D9-ADC9A15665F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D094EBB6-5F50-4CC7-8D9B-DA0DCCD93C72}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4FC8A264-CBA7-496F-93E4-CF423C2F38DB}"/>
   </bookViews>
   <sheets>
     <sheet name="PQ_Exercise" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_nIndex" localSheetId="0">_tData[Index]</definedName>
     <definedName name="_nItem1" localSheetId="0">_tData[Item 1]</definedName>
     <definedName name="_nItem2" localSheetId="0">_tData[Item 2]</definedName>
     <definedName name="_nItem3" localSheetId="0">_tData[Item 3]</definedName>
+    <definedName name="fnMave">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,         AVERAGE(OFFSET(_xlpm.x,                        0,                        0,                       -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),1)                 )         )</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FROM:</t>
   </si>
@@ -120,23 +118,27 @@
   <si>
     <t>=LAMBDA(x,AVERAGE(OFFSET(x,0,0,-MIN(3,ROW()-1),1)))(C17)</t>
   </si>
+  <si>
+    <t>Here is Jon's formula. Note that it uses offset -- volatile.</t>
+  </si>
+  <si>
+    <t>It appears to be setup to have data in the 1st row.</t>
+  </si>
+  <si>
+    <t>=OFFSET(reference,rows,cols,height,width)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -199,15 +201,16 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1551,7 +1554,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5214DF9-A8E7-4B98-AF49-4D1A2C8B4F21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1579,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>144780</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
@@ -1594,7 +1597,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82C6694-3D8C-459A-B249-8D5C5579F3D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1640,14 +1643,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>144780</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="293370" cy="217170"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
@@ -1656,7 +1664,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D70EB6-0CC0-4ED1-A247-B90243873DF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1696,20 +1704,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>144780</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="293370" cy="217170"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
@@ -1718,7 +1731,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17988FA1-0929-4D7A-B166-4ECEDC286D46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1758,20 +1771,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>144780</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="293370" cy="217170"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -1780,7 +1798,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD2FB2D-F120-4F2B-9481-E8224FE22D07}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1820,199 +1838,11 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Report"/>
-      <sheetName val="PQ_Exercise"/>
-      <sheetName val="Formats"/>
-      <sheetName val="Lists"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Item 1</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Item 2</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>Item 3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>1</v>
-          </cell>
-          <cell r="B17">
-            <v>2</v>
-          </cell>
-          <cell r="C17">
-            <v>3.3427598138925898</v>
-          </cell>
-          <cell r="D17">
-            <v>3.3427598138925898</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2</v>
-          </cell>
-          <cell r="B18">
-            <v>4</v>
-          </cell>
-          <cell r="C18">
-            <v>3.2094483460506238</v>
-          </cell>
-          <cell r="D18">
-            <v>3.2761040799716068</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>3</v>
-          </cell>
-          <cell r="B19">
-            <v>6</v>
-          </cell>
-          <cell r="C19">
-            <v>8.8718184985069595</v>
-          </cell>
-          <cell r="D19">
-            <v>5.1413422194833913</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>4</v>
-          </cell>
-          <cell r="B20">
-            <v>8</v>
-          </cell>
-          <cell r="C20">
-            <v>7.5845131324309474</v>
-          </cell>
-          <cell r="D20">
-            <v>6.5552599923295105</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>5</v>
-          </cell>
-          <cell r="B21">
-            <v>10</v>
-          </cell>
-          <cell r="C21">
-            <v>9.9714972144583349</v>
-          </cell>
-          <cell r="D21">
-            <v>8.8092762817987467</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>6</v>
-          </cell>
-          <cell r="B22">
-            <v>12</v>
-          </cell>
-          <cell r="C22">
-            <v>12.302745287452884</v>
-          </cell>
-          <cell r="D22">
-            <v>9.9529185447807222</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>7</v>
-          </cell>
-          <cell r="B23">
-            <v>14</v>
-          </cell>
-          <cell r="C23">
-            <v>12.636475061182448</v>
-          </cell>
-          <cell r="D23">
-            <v>11.636905854364556</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>8</v>
-          </cell>
-          <cell r="B24">
-            <v>16</v>
-          </cell>
-          <cell r="C24">
-            <v>18.954364191951214</v>
-          </cell>
-          <cell r="D24">
-            <v>14.631194846862181</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>9</v>
-          </cell>
-          <cell r="B25">
-            <v>18</v>
-          </cell>
-          <cell r="C25">
-            <v>15.960188993278717</v>
-          </cell>
-          <cell r="D25">
-            <v>15.850342748804126</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>10</v>
-          </cell>
-          <cell r="B26">
-            <v>20</v>
-          </cell>
-          <cell r="C26">
-            <v>21</v>
-          </cell>
-          <cell r="D26">
-            <v>18.638184395076646</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>11</v>
-          </cell>
-          <cell r="B27">
-            <v>22</v>
-          </cell>
-          <cell r="C27">
-            <v>24</v>
-          </cell>
-          <cell r="D27">
-            <v>20.320062997759575</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2217,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E448A36-5A47-4D4A-8D4D-00A798328F47}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2465,14 +2295,335 @@
         <v>20.320062997759575</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" cm="1">
+        <f t="array" ref="C42">ROW(_tData[#Headers])</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C17,ROW(_tData[#Headers]))</f>
+        <v>3.3427598138925898</v>
+      </c>
+      <c r="D44" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C17,_tData[],3)</f>
+        <v>3.3427598138925898</v>
+      </c>
+      <c r="E44" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">fnMave(C17,_tData[],3)</f>
+        <v>3.3427598138925898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C18,ROW(_tData[#Headers]))</f>
+        <v>3.2761040799716068</v>
+      </c>
+      <c r="D45" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C18,_tData[],3)</f>
+        <v>3.2761040799716068</v>
+      </c>
+      <c r="E45" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">fnMave(C18,_tData[],3)</f>
+        <v>3.2761040799716068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C19,ROW(_tData[#Headers]))</f>
+        <v>5.1413422194833913</v>
+      </c>
+      <c r="D46" cm="1">
+        <f t="array" aca="1" ref="D46" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C19,_tData[],3)</f>
+        <v>5.1413422194833913</v>
+      </c>
+      <c r="E46" cm="1">
+        <f t="array" aca="1" ref="E46" ca="1">fnMave(C19,_tData[],3)</f>
+        <v>5.1413422194833913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C20,ROW(_tData[#Headers]))</f>
+        <v>6.5552599923295105</v>
+      </c>
+      <c r="D47" cm="1">
+        <f t="array" aca="1" ref="D47" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C20,_tData[],3)</f>
+        <v>6.5552599923295105</v>
+      </c>
+      <c r="E47" cm="1">
+        <f t="array" aca="1" ref="E47" ca="1">fnMave(C20,_tData[],3)</f>
+        <v>6.5552599923295105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C21,ROW(_tData[#Headers]))</f>
+        <v>8.8092762817987467</v>
+      </c>
+      <c r="D48" cm="1">
+        <f t="array" aca="1" ref="D48" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C21,_tData[],3)</f>
+        <v>8.8092762817987467</v>
+      </c>
+      <c r="E48" cm="1">
+        <f t="array" aca="1" ref="E48" ca="1">fnMave(C21,_tData[],3)</f>
+        <v>8.8092762817987467</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C22,ROW(_tData[#Headers]))</f>
+        <v>9.9529185447807222</v>
+      </c>
+      <c r="D49" cm="1">
+        <f t="array" aca="1" ref="D49" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C22,_tData[],3)</f>
+        <v>9.9529185447807222</v>
+      </c>
+      <c r="E49" cm="1">
+        <f t="array" aca="1" ref="E49" ca="1">fnMave(C22,_tData[],3)</f>
+        <v>9.9529185447807222</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C23,ROW(_tData[#Headers]))</f>
+        <v>11.636905854364556</v>
+      </c>
+      <c r="D50" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C23,_tData[],3)</f>
+        <v>11.636905854364556</v>
+      </c>
+      <c r="E50" cm="1">
+        <f t="array" aca="1" ref="E50" ca="1">fnMave(C23,_tData[],3)</f>
+        <v>11.636905854364556</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C24,ROW(_tData[#Headers]))</f>
+        <v>14.631194846862181</v>
+      </c>
+      <c r="D51" cm="1">
+        <f t="array" aca="1" ref="D51" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C24,_tData[],3)</f>
+        <v>14.631194846862181</v>
+      </c>
+      <c r="E51" cm="1">
+        <f t="array" aca="1" ref="E51" ca="1">fnMave(C24,_tData[],3)</f>
+        <v>14.631194846862181</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C25,ROW(_tData[#Headers]))</f>
+        <v>15.850342748804126</v>
+      </c>
+      <c r="D52" cm="1">
+        <f t="array" aca="1" ref="D52" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C25,_tData[],3)</f>
+        <v>15.850342748804126</v>
+      </c>
+      <c r="E52" cm="1">
+        <f t="array" aca="1" ref="E52" ca="1">fnMave(C25,_tData[],3)</f>
+        <v>15.850342748804126</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" cm="1">
+        <f t="array" aca="1" ref="B53" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C26,ROW(_tData[#Headers]))</f>
+        <v>18.638184395076646</v>
+      </c>
+      <c r="D53" cm="1">
+        <f t="array" aca="1" ref="D53" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C26,_tData[],3)</f>
+        <v>18.638184395076646</v>
+      </c>
+      <c r="E53" cm="1">
+        <f t="array" aca="1" ref="E53" ca="1">fnMave(C26,_tData[],3)</f>
+        <v>18.638184395076646</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" cm="1">
+        <f t="array" aca="1" ref="B54" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.hr,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(3,ROW()-_xlpm.hr-1),1)
+                )
+        )(C27,ROW(_tData[#Headers]))</f>
+        <v>20.320062997759575</v>
+      </c>
+      <c r="D54" cm="1">
+        <f t="array" aca="1" ref="D54" ca="1">_xlfn.LAMBDA(_xlpm.x,_xlpm._t,_xlpm.n,
+        AVERAGE(OFFSET(_xlpm.x,
+                       0,
+                       0,
+                      -MIN(_xlpm.n,ROW()-ROW(_xlpm._t)-1),
+                       1)
+                )
+        )(C27,_tData[],3)</f>
+        <v>20.320062997759575</v>
+      </c>
+      <c r="E54" cm="1">
+        <f t="array" aca="1" ref="E54" ca="1">fnMave(C27,_tData[],3)</f>
+        <v>20.320062997759575</v>
       </c>
     </row>
   </sheetData>
